--- a/data/trans_bre/P7_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>-5,96</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,16</t>
+          <t>-6,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>-6,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-7,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,19%</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,53%</t>
+          <t>-6,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-4,01%</t>
+          <t>-6,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,79%</t>
+          <t>-7,04%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-7,5%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-4,64%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 3,06</t>
+          <t>-16,26; 3,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 1,88</t>
+          <t>-18,11; 2,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 3,97</t>
+          <t>-18,49; 1,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 5,08</t>
+          <t>-19,55; 1,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 3,46</t>
+          <t>-15,0; 4,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 2,21</t>
+          <t>-17,33; 3,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 4,45</t>
+          <t>-18,91; 2,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 5,84</t>
+          <t>-19,21; 1,65</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-20,29; 1,82</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-15,52; 4,94</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-5,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,34%</t>
+          <t>-5,51</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>-5,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>-3,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>-3,38%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-3,53%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-5,93%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 2,29</t>
+          <t>-9,91; -0,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 4,55</t>
+          <t>-8,12; 1,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 4,37</t>
+          <t>-8,33; 1,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 4,44</t>
+          <t>-8,67; 1,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 2,46</t>
+          <t>-12,73; 0,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 4,96</t>
+          <t>-10,19; -0,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 4,78</t>
+          <t>-8,39; 1,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 4,83</t>
+          <t>-8,66; 1,74</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-9,02; 1,36</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-13,33; 0,44</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>5,54%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,28%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 10,89</t>
+          <t>1,14; 15,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 12,19</t>
+          <t>0,5; 17,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 11,49</t>
+          <t>-2,04; 16,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 10,74</t>
+          <t>-2,92; 14,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 12,55</t>
+          <t>-0,78; 15,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 13,92</t>
+          <t>1,18; 19,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 14,05</t>
+          <t>0,52; 22,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 12,88</t>
+          <t>-2,09; 20,75</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-3,14; 19,0</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 18,82</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,32%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 3,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 4,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 4,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 4,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 3,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 4,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 4,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 4,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-0,69%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,06%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,69%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,96%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-1,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-3,79; 3,8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 4,74</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-4,2; 4,03</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-4,79; 3,43</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-5,55; 3,6</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 4,12</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 5,19</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 4,36</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 3,83</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-5,88; 4,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P7_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-5,96</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-6,55</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-6,81</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-7,25</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-4,48</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-6,21%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-6,8%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-7,04%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-7,5%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-4,64%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-5.957659608462162</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-5.975051000950094</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-6.706614789589405</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-6.717327152270103</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-3.830179638898334</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.06205893568087542</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.06194038329892422</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.06932849223608352</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.06951752681906306</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.03961728821461548</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-16,26; 3,13</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-18,11; 2,33</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-18,49; 1,6</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-19,55; 1,78</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-15,0; 4,56</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-17,33; 3,32</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-18,91; 2,41</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-19,21; 1,65</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-20,29; 1,82</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-15,52; 4,94</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-16.26169425509429</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-16.95783597710888</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-18.44887531750636</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-18.04675695899303</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-13.17281503974015</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1733290298985012</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1776306598737739</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1891254142984322</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1868863906273108</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1364360571907653</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.130341986284372</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.331194508782493</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.716678805845266</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.087467845031051</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>5.122535322159288</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.03316907815700029</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.0245172806702778</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.01726975203474796</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.02135957392068001</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.05469330345361839</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-5,03</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,33</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,24</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-3,38</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-5,51</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-5,19%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-3,48%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-3,38%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-3,53%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-5,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,91; -0,31</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,12; 1,62</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,33; 1,66</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-8,67; 1,27</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-12,73; 0,42</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-10,19; -0,42</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-8,39; 1,74</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-8,66; 1,74</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-9,02; 1,36</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-13,33; 0,44</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-5.028578187706967</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.867629938768989</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-2.036800669614225</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-2.231977013657871</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-4.41115655321529</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.05191195157289612</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.01967346528084352</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.02141134269123086</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.0233784012798092</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.04757385789573591</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,35</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6,16</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,94</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,4</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,38</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,98%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>6,82%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5,54%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>6,21%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>7,28%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.906913190204502</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.586115673326226</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-6.863502805985681</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.363910528816605</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-11.23796240493667</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1019409373149319</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.06720295145689072</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.07069778966252387</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.07579569989188624</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1196683264502593</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 15,74</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 17,88</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,04; 16,1</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 14,87</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-0,78; 15,05</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,18; 19,11</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,52; 22,35</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 20,75</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-3,14; 19,0</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 18,82</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.3093053722343471</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.812286317216804</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.38544370878698</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.449967722234796</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.276845631846424</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.004211840264335462</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.04232929582136161</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.03694453267080388</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.02617856554821507</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.01385534026098579</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +879,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>6.349561384328894</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.341886619763461</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.683872230377331</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>6.371455843419493</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>7.125705435092289</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.0698052572186693</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.09454040660579763</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.07635704555711331</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.07396011747225917</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.08156129843077087</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1.135634069479449</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.319412093102132</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.9953941019048824</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-2.288979696956885</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3157724988057107</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.01180287903179839</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.01456241237793245</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.008244787558324069</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.02508745400798985</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0.003642526509997841</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.74001368215886</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>20.48837944070592</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>18.74588490095649</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>16.67702653586197</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>15.9626092185788</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.1911213830809408</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.2778109099980589</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2435634234006736</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.2184856874546836</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.2046461418664196</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,64</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,89</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-1,07</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-0,69%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-0,06%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,69%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-0,96%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-1,17%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,79; 3,8</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,57; 4,74</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,2; 4,03</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,79; 3,43</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-5,55; 3,6</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-3,96; 4,12</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-3,72; 5,19</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-4,42; 4,36</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-5,05; 3,83</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-5,88; 4,06</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.6509108017170639</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.584767844089452</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.5549034053510482</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.05358265505515103</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.1869466457080082</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.006887011880830005</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.01712194762024276</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.005995499720001908</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.0005799431948822271</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.002041004585481939</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.79043254885583</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.266213851696168</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.026389343748813</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.675487754169556</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-4.499895878863593</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.03960292595489593</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.02376741739653035</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.03184576020318384</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.03883177858470188</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.04763579721396256</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.796107059876464</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.737168927384377</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.621557948730693</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.731469980511866</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>4.707022540365887</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.04118815396542365</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.0763746147583249</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.06256950556314991</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.05360677897041588</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.05358056552406381</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
